--- a/biology/Botanique/Pomologie/Pomologie.xlsx
+++ b/biology/Botanique/Pomologie/Pomologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomologie est une branche de l'arboriculture fruitière qui traite de la connaissance des fruits par leur description, identification, classification. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot pomologie vient du latin pomus = fruit[1]. Ou de Pomone, la divinité des fruits.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot pomologie vient du latin pomus = fruit. Ou de Pomone, la divinité des fruits.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Présentation de l'activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers livres importants de pomologie sont apparus vers le XVIIIe siècle. Ils étaient souvent richement illustrés et étaient originaires principalement d'Allemagne et de France.
 Le pomologue est une personne versée dans la pomologie ou simplement l'auteur de descriptions pomologiques.
@@ -575,7 +591,9 @@
           <t>Pomologues célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adrian Diel (1756-1839), médecin allemand
 Charles Downing
